--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3782330.828767573</v>
+        <v>3779786.23607329</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.99298492937234</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663196</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>109.9645463939861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.7337768187005</v>
+        <v>130.4949840230016</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>257.8252476613871</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425943</v>
+        <v>23.94240680425875</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090849</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.7136576404482</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074777</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>29.43305940535027</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>40.05337266685003</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.1480668197321</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>60.64560821255572</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>200.4727983501253</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.2769799447086</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969686</v>
       </c>
     </row>
     <row r="10">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.2886548806418</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>185.9158911817641</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444124</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.278598673301</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>94.80184639741353</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820908</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820908</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656063</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656063</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912178</v>
+        <v>126.0773463611704</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262241</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262241</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262241</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262241</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262241</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097396</v>
+        <v>133.0228471103738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507.5097502338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>507.5097502338</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>358.5753405725487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>358.5753405725487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>212.0407825994337</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264268</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264268</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264268</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264268</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264268</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264268</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264268</v>
+        <v>146.8151621480547</v>
       </c>
       <c r="Y3" t="n">
-        <v>507.5097502338</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1076.61484395093</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="C5" t="n">
-        <v>1076.61484395093</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="D5" t="n">
-        <v>718.3491453441798</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518695</v>
+        <v>53.87919821146569</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226199</v>
+        <v>46.93369746226222</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746969</v>
+        <v>277.980716674699</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030745</v>
+        <v>521.2049416030784</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709154</v>
+        <v>823.508193570921</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582748</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079235</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1621.822248332764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540646</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540646</v>
+        <v>1562.810726301007</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540646</v>
+        <v>1562.810726301007</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.08060221201</v>
+        <v>1309.172761972371</v>
       </c>
       <c r="V5" t="n">
-        <v>1450.08060221201</v>
+        <v>1309.172761972371</v>
       </c>
       <c r="W5" t="n">
-        <v>1450.08060221201</v>
+        <v>1309.172761972371</v>
       </c>
       <c r="X5" t="n">
-        <v>1076.61484395093</v>
+        <v>935.7070037112912</v>
       </c>
       <c r="Y5" t="n">
-        <v>1076.61484395093</v>
+        <v>826.2672908738317</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.7622549316706</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="C6" t="n">
-        <v>138.3092256505436</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675756</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787494</v>
+        <v>61.66788464787575</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806055</v>
+        <v>186.1577239806072</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189964</v>
+        <v>399.8722171189995</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223481</v>
+        <v>668.6238185223526</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352453</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906545</v>
+        <v>1401.100270703779</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906545</v>
+        <v>1258.309378699374</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906545</v>
+        <v>1062.768760419129</v>
       </c>
       <c r="U6" t="n">
-        <v>1217.763518862102</v>
+        <v>834.6536183746854</v>
       </c>
       <c r="V6" t="n">
-        <v>982.6114106303589</v>
+        <v>599.5015101429426</v>
       </c>
       <c r="W6" t="n">
-        <v>728.3740539021574</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="X6" t="n">
-        <v>520.5225536966245</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="Y6" t="n">
-        <v>312.7622549316706</v>
+        <v>362.0108483422813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="E7" t="n">
-        <v>221.9059560034053</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F7" t="n">
-        <v>75.01600850549497</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574653</v>
+        <v>64.24066662574734</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584108</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347961</v>
+        <v>206.9680378347984</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195352</v>
+        <v>287.8841338195382</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934699</v>
+        <v>342.3101561934736</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857984</v>
+        <v>369.8190495858027</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857984</v>
+        <v>369.8190495858027</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857984</v>
+        <v>252.8894369427499</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857984</v>
+        <v>252.8894369427499</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857984</v>
+        <v>252.8894369427499</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857984</v>
+        <v>252.8894369427499</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857984</v>
+        <v>34.55805631675781</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>588.3049192120716</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428176</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>43.3691965380931</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H8" t="n">
-        <v>43.3691965380931</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I8" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
         <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904655</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904655</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1965.962050793417</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.962050793417</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>1965.962050793417</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793417</v>
+        <v>588.3049192120716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>43.3691965380931</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.55206530918</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.55206530918</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1197.399957077437</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>943.1626003492358</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>735.311100143703</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.4220188783357</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406002</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406002</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406002</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,22 +5653,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,22 +5999,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6470,25 +6470,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.448174698413</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.55338150863629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176756</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977556</v>
@@ -26353,7 +26353,7 @@
         <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025311</v>
+        <v>270592.3620253141</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231953</v>
+        <v>115410.0540231912</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742645</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.298474137503442e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881944</v>
+        <v>62913.63765882009</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197539</v>
+        <v>27875.25362197448</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263467</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687961</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687973</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936805</v>
+        <v>76435.73471936829</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.5421489122</v>
+        <v>-126363.5421489126</v>
       </c>
       <c r="C6" t="n">
-        <v>246883.2059466505</v>
+        <v>246883.205946648</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497105</v>
+        <v>425703.5996497151</v>
       </c>
       <c r="E6" t="n">
-        <v>68965.55729270446</v>
+        <v>68930.81936726818</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.7648669691</v>
+        <v>670374.0269415337</v>
       </c>
       <c r="G6" t="n">
-        <v>670408.764866969</v>
+        <v>670374.0269415337</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.7648669691</v>
+        <v>670374.026941533</v>
       </c>
       <c r="I6" t="n">
-        <v>670408.7648669691</v>
+        <v>670374.0269415333</v>
       </c>
       <c r="J6" t="n">
-        <v>621343.8201384246</v>
+        <v>621309.0822129891</v>
       </c>
       <c r="K6" t="n">
-        <v>607495.1272081498</v>
+        <v>607460.3892827134</v>
       </c>
       <c r="L6" t="n">
-        <v>642533.5112449934</v>
+        <v>642498.7733195586</v>
       </c>
       <c r="M6" t="n">
-        <v>513262.3843153711</v>
+        <v>513227.6463899349</v>
       </c>
       <c r="N6" t="n">
-        <v>670408.7648669688</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="O6" t="n">
-        <v>670408.7648669693</v>
+        <v>670374.0269415337</v>
       </c>
       <c r="P6" t="n">
-        <v>670408.764866969</v>
+        <v>670374.0269415332</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.123092671879303e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.123092671879303e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.123092671879303e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950602</v>
+        <v>758.8996292950629</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594695</v>
+        <v>431.9757039594725</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261638</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.123092671879303e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.748357090457004e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382156</v>
+        <v>210.4296883821584</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8110352426246</v>
+        <v>94.81103524262107</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039889</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931498</v>
+        <v>244.4501167931526</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734846</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931526</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666906</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734846</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.123092671879303e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931498</v>
+        <v>244.4501167931526</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666943</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734846</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.7408567341082</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543633</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753918</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>303.1332868360719</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871044</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,25 +27461,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y3" t="n">
-        <v>37.94891895860385</v>
+        <v>75.18771175430277</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0308748441938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>124.1051224108747</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760063</v>
+        <v>92.8578877276002</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8926229469687</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>44.73140792419058</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937525</v>
+        <v>43.32085084937505</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074813</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>222.2619237555693</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>126.5690991633717</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304066</v>
+        <v>30.24193919304031</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589176</v>
+        <v>36.91115760589135</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>35.98957650409588</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>304.6272835584518</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>127.2794601200096</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485906</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576075</v>
       </c>
     </row>
     <row r="10">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.54332530129548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>39.79376420727306</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.152123503497478e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.30232927890104e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.205788572437525e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286708</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>388.0799144520276</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511768</v>
+        <v>481.4474502511785</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396809</v>
+        <v>535.7030533968109</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610687</v>
+        <v>544.3712888610706</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191481</v>
+        <v>514.0343715191499</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860956</v>
+        <v>438.7164434860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634662</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>69.52130774898995</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062475</v>
+        <v>56.20152915062495</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.5887514316635</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721883</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>424.5470671468673</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>388.377624437446</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872495</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547501</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378869</v>
+        <v>6.579516597378892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734524</v>
+        <v>41.15475366734539</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635545</v>
+        <v>96.7534822463558</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162534</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054699</v>
+        <v>61.53307486054721</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883079</v>
+        <v>5.847259438830811</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656338</v>
+        <v>0.07464586517656364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>77.89141170198451</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>167.990063407047</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695363</v>
+        <v>305.3568201695382</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644778</v>
+        <v>314.9582252644797</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974613</v>
+        <v>283.9361600974631</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>207.4834477308276</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.1520883890167</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092665</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.7473124573045</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>271.4662640437909</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930002</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729193</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872787</v>
+        <v>68.38629016872861</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554441</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501444</v>
+        <v>68.57507023501515</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230838</v>
+        <v>75.59399159230915</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761528</v>
+        <v>81.73343028761602</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569163</v>
+        <v>54.97578017569231</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235199</v>
+        <v>27.78676100235259</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
